--- a/Excel/EposLevelExp.xlsx
+++ b/Excel/EposLevelExp.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D13508C-D89B-4CD0-86E7-1C4DB8A7660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57EBF5-9AB0-468E-93F3-60FC060FBE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -380,189 +393,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B4" s="3">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>57.623999999999988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>80.673599999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>112.94303999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>158.12025599999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>221.36835839999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>265.64203007999987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>318.77043609599986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>382.52452331519981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>459.02942797823977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>550.83531357388767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>661.00237628866523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>793.20285154639828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>951.84342185567789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1142.2121062268134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1370.6545274721759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1439.1872538457849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1511.1466165380741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1586.7039473649779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1666.039144733227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1749.3411019698883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1836.8081570683828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1882.7283609950923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1929.7965700199695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1978.0414842704686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2027.4925213772301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2078.1798344116605</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
